--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
@@ -549,34 +549,34 @@
         <v>0.4868977833905078</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q2">
-        <v>0.30581178879</v>
+        <v>0.41671305677</v>
       </c>
       <c r="R2">
-        <v>2.75230609911</v>
+        <v>3.750417510930001</v>
       </c>
       <c r="S2">
-        <v>0.06254315845732812</v>
+        <v>0.0777271876132412</v>
       </c>
       <c r="T2">
-        <v>0.06254315845732811</v>
+        <v>0.07772718761324121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q3">
         <v>1.585162240353333</v>
@@ -635,10 +635,10 @@
         <v>14.26646016318</v>
       </c>
       <c r="S3">
-        <v>0.3241897690447493</v>
+        <v>0.2956715678850776</v>
       </c>
       <c r="T3">
-        <v>0.3241897690447492</v>
+        <v>0.2956715678850776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N4">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q4">
-        <v>0.4882977517666666</v>
+        <v>0.6018557764266667</v>
       </c>
       <c r="R4">
-        <v>4.3946797659</v>
+        <v>5.41670198784</v>
       </c>
       <c r="S4">
-        <v>0.09986431126130066</v>
+        <v>0.1122608377405569</v>
       </c>
       <c r="T4">
-        <v>0.09986431126130065</v>
+        <v>0.1122608377405569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>0.4868977833905078</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N5">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q5">
-        <v>0.001469546666666667</v>
+        <v>0.006638217833333334</v>
       </c>
       <c r="R5">
-        <v>0.01322592</v>
+        <v>0.05974396050000001</v>
       </c>
       <c r="S5">
-        <v>0.0003005446271297475</v>
+        <v>0.001238190151631959</v>
       </c>
       <c r="T5">
-        <v>0.0003005446271297475</v>
+        <v>0.001238190151631959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,34 +797,34 @@
         <v>0.5131022166094922</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N6">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q6">
-        <v>0.322270324586</v>
+        <v>0.4391402064513333</v>
       </c>
       <c r="R6">
-        <v>2.900432921274</v>
+        <v>3.952261858062001</v>
       </c>
       <c r="S6">
-        <v>0.06590917916025039</v>
+        <v>0.08191040012024305</v>
       </c>
       <c r="T6">
-        <v>0.06590917916025038</v>
+        <v>0.08191040012024306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>34.517578</v>
       </c>
       <c r="O7">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P7">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q7">
         <v>1.670474352023555</v>
@@ -883,10 +883,10 @@
         <v>15.034269168212</v>
       </c>
       <c r="S7">
-        <v>0.3416373924330811</v>
+        <v>0.3115843654366386</v>
       </c>
       <c r="T7">
-        <v>0.341637392433081</v>
+        <v>0.3115843654366386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N8">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q8">
-        <v>0.5145775301177777</v>
+        <v>0.634247153095111</v>
       </c>
       <c r="R8">
-        <v>4.63119777106</v>
+        <v>5.708224377855999</v>
       </c>
       <c r="S8">
-        <v>0.1052389253274892</v>
+        <v>0.1183026225381688</v>
       </c>
       <c r="T8">
-        <v>0.1052389253274892</v>
+        <v>0.1183026225381688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,34 +983,34 @@
         <v>0.5131022166094922</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N9">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q9">
-        <v>0.001548636444444444</v>
+        <v>0.006995481188888888</v>
       </c>
       <c r="R9">
-        <v>0.013937728</v>
+        <v>0.06295933070000001</v>
       </c>
       <c r="S9">
-        <v>0.0003167196886716268</v>
+        <v>0.001304828514441717</v>
       </c>
       <c r="T9">
-        <v>0.0003167196886716268</v>
+        <v>0.001304828514441718</v>
       </c>
     </row>
   </sheetData>
